--- a/storage/app/public/template.xlsx
+++ b/storage/app/public/template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17127"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive - Chulalongkorn University\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cherry/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204EB14F-1A34-BE49-8DFB-D4CE4256DA04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,58 +25,79 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>division</t>
-  </si>
-  <si>
-    <t>storage</t>
-  </si>
-  <si>
-    <t>budget</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>light sound</t>
-  </si>
-  <si>
-    <t>ACAD</t>
-  </si>
-  <si>
-    <t>example</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>Detail</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Division</t>
+  </si>
+  <si>
+    <t>Storage</t>
+  </si>
+  <si>
+    <t>Budget</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>วอร์แดง</t>
+  </si>
+  <si>
+    <t>วอร์แดง Splender รุ่น TC-751H</t>
+  </si>
+  <si>
+    <t>ทีมปี 2</t>
+  </si>
+  <si>
+    <t>ห้องสพจ.</t>
+  </si>
+  <si>
+    <t>สพจ.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="TH SarabunPSK"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -83,12 +105,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,60 +454,66 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScale="191" zoomScaleNormal="212" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="27" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.19921875" customWidth="1"/>
-    <col min="3" max="3" width="20.19921875" customWidth="1"/>
-    <col min="4" max="4" width="16.09765625" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="13.3984375" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="31" style="5" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="16" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>9999</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2">
-        <v>2022</v>
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="4">
+        <v>2023</v>
       </c>
     </row>
   </sheetData>
